--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corneliuspreidel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corneliuspreidel/dev/beerCert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC25807-8F03-434B-B70D-ABA656DC14FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD57CFC-0DC2-4C48-BD4B-E0C70239E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BB9497CE-9CC4-C145-A5EE-19AFB03145AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{BB9497CE-9CC4-C145-A5EE-19AFB03145AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="565">
   <si>
     <t>Question</t>
   </si>
@@ -1871,6 +1871,663 @@
   </si>
   <si>
     <t>Nothing special – security is implicitly handled by whatever BIM software is used, with no need for management involvement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does the term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openBIM®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mean?</t>
+    </r>
+  </si>
+  <si>
+    <t>A vendor-neutral, collaborative approach using open standards for data exchange</t>
+  </si>
+  <si>
+    <t>A proprietary BIM software brand</t>
+  </si>
+  <si>
+    <t>A 2D CAD drafting method</t>
+  </si>
+  <si>
+    <t>Which international standard defines the Industry Foundation Classes (IFC)?</t>
+  </si>
+  <si>
+    <t>ISO 16739</t>
+  </si>
+  <si>
+    <t>ISO 19650-1</t>
+  </si>
+  <si>
+    <t>ISO 41000</t>
+  </si>
+  <si>
+    <t>Which ISO standard series provides a framework for managing information using BIM?</t>
+  </si>
+  <si>
+    <t>ISO 19650</t>
+  </si>
+  <si>
+    <t>ISO 9001</t>
+  </si>
+  <si>
+    <t>ISO 27001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4D BIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> add to a 3D model?</t>
+    </r>
+  </si>
+  <si>
+    <t>Time and scheduling information</t>
+  </si>
+  <si>
+    <t>Energy consumption data</t>
+  </si>
+  <si>
+    <t>Legal contract clauses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5D BIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> primarily add to a model?</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost estimation and budgeting data</t>
+  </si>
+  <si>
+    <t>Lighting simulation</t>
+  </si>
+  <si>
+    <t>Stakeholder names</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the purpose of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Common Data Environment (CDE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>To provide a single shared repository for managing project information</t>
+  </si>
+  <si>
+    <t>To store only paper-based documentation</t>
+  </si>
+  <si>
+    <t>To replace BIM standards</t>
+  </si>
+  <si>
+    <t>In a CDE, what does the “Work in Progress” state represent?</t>
+  </si>
+  <si>
+    <t>Information being developed and not yet shared</t>
+  </si>
+  <si>
+    <t>Information approved for all parties</t>
+  </si>
+  <si>
+    <t>Archived information</t>
+  </si>
+  <si>
+    <t>What does the “Published” state in a CDE mean?</t>
+  </si>
+  <si>
+    <t>Information is authorized and reliable for intended use</t>
+  </si>
+  <si>
+    <t>Information is still under development</t>
+  </si>
+  <si>
+    <t>Information has been deleted</t>
+  </si>
+  <si>
+    <t>Which document defines how BIM will be implemented and managed in a project?</t>
+  </si>
+  <si>
+    <t>BIM Execution Plan (BEP)</t>
+  </si>
+  <si>
+    <t>Contract Agreement</t>
+  </si>
+  <si>
+    <t>Tender Invitation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exchange Information Requirements (EIR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Documents specifying what information is needed, when, and in what format</t>
+  </si>
+  <si>
+    <t>Software settings for 3D rendering</t>
+  </si>
+  <si>
+    <t>Financial budgets for procurement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the purpose of an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Information Delivery Specification (IDS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>To define required objects, properties, and values in a computer-readable format</t>
+  </si>
+  <si>
+    <t>To summarize project costs in PDF form</t>
+  </si>
+  <si>
+    <t>To regulate international building permits</t>
+  </si>
+  <si>
+    <t>Why is the buildingSMART Data Dictionary (bSDD) important?</t>
+  </si>
+  <si>
+    <t>It ensures consistent property and classification definitions across BIM models</t>
+  </si>
+  <si>
+    <t>It stores every 3D model ever created</t>
+  </si>
+  <si>
+    <t>It replaces IFC as a data exchange format</t>
+  </si>
+  <si>
+    <t>What is the role of the BIM Collaboration Format (BCF)?</t>
+  </si>
+  <si>
+    <t>To enable issue tracking and communication across BIM platforms</t>
+  </si>
+  <si>
+    <t>To convert BIM models into 2D CAD</t>
+  </si>
+  <si>
+    <t>To store facility management data</t>
+  </si>
+  <si>
+    <t>How does BCF improve workflows?</t>
+  </si>
+  <si>
+    <t>It allows sharing issues and viewpoints without exchanging full models</t>
+  </si>
+  <si>
+    <t>It replaces IFC completely</t>
+  </si>
+  <si>
+    <t>It encrypts all BIM models into proprietary formats</t>
+  </si>
+  <si>
+    <t>Who develops and maintains openBIM standards like IFC, BCF, and IDS?</t>
+  </si>
+  <si>
+    <t>buildingSMART International</t>
+  </si>
+  <si>
+    <t>ISO alone</t>
+  </si>
+  <si>
+    <t>Proprietary software vendors</t>
+  </si>
+  <si>
+    <t>What is one benefit of using BIM for risk management?</t>
+  </si>
+  <si>
+    <t>Early clash detection reduces rework and delays</t>
+  </si>
+  <si>
+    <t>It guarantees material prices remain stable</t>
+  </si>
+  <si>
+    <t>It eliminates all need for regulations</t>
+  </si>
+  <si>
+    <t>What does ISO 19650-3 specifically address?</t>
+  </si>
+  <si>
+    <t>Information management during the operational phase</t>
+  </si>
+  <si>
+    <t>Information security</t>
+  </si>
+  <si>
+    <t>Information exchange during tendering only</t>
+  </si>
+  <si>
+    <t>What does ISO 19650-5 focus on?</t>
+  </si>
+  <si>
+    <t>A security-minded approach to protecting sensitive asset information</t>
+  </si>
+  <si>
+    <t>Thermal performance of materials</t>
+  </si>
+  <si>
+    <t>Procurement law requirements</t>
+  </si>
+  <si>
+    <t>Why is good information management critical in BIM projects?</t>
+  </si>
+  <si>
+    <t>It ensures the right information is delivered at the right time and format</t>
+  </si>
+  <si>
+    <t>It eliminates the need for planning</t>
+  </si>
+  <si>
+    <t>It prevents the use of any external software</t>
+  </si>
+  <si>
+    <t>What is meant by “information waste” in BIM?</t>
+  </si>
+  <si>
+    <t>Data that is unnecessary, duplicated, or not fit for purpose</t>
+  </si>
+  <si>
+    <t>The cost of printing BIM models</t>
+  </si>
+  <si>
+    <t>Deleted emails from project communication</t>
+  </si>
+  <si>
+    <t>What does “Level of Information Need” define?</t>
+  </si>
+  <si>
+    <t>The required granularity and detail of information deliverables</t>
+  </si>
+  <si>
+    <t>The number of stakeholders in a project</t>
+  </si>
+  <si>
+    <t>The size of BIM software installation</t>
+  </si>
+  <si>
+    <t>Which standard supports defining project lifecycle stages for information exchange?</t>
+  </si>
+  <si>
+    <t>ISO 22263</t>
+  </si>
+  <si>
+    <t>ISO 55000</t>
+  </si>
+  <si>
+    <t>What is the main advantage of digitalization in the built asset sector?</t>
+  </si>
+  <si>
+    <t>Improved efficiency, collaboration, and reduction of errors</t>
+  </si>
+  <si>
+    <t>Guaranteed lower energy prices</t>
+  </si>
+  <si>
+    <t>Elimination of the need for contracts</t>
+  </si>
+  <si>
+    <t>What is the primary goal of openBIM®?</t>
+  </si>
+  <si>
+    <t>To enable interoperability across different software platforms using open standards</t>
+  </si>
+  <si>
+    <t>To enforce the use of one proprietary BIM tool</t>
+  </si>
+  <si>
+    <t>To eliminate 3D modeling</t>
+  </si>
+  <si>
+    <t>Which international standard provides a framework for managing asset information through the entire lifecycle?</t>
+  </si>
+  <si>
+    <t>ISO 50001</t>
+  </si>
+  <si>
+    <t>ISO 31000</t>
+  </si>
+  <si>
+    <t>What is the main purpose of IFC (Industry Foundation Classes)?</t>
+  </si>
+  <si>
+    <t>To provide a vendor-neutral data schema for BIM data exchange</t>
+  </si>
+  <si>
+    <t>To serve as a proprietary file format for one software vendor</t>
+  </si>
+  <si>
+    <t>To define health and safety rules</t>
+  </si>
+  <si>
+    <t>What does the acronym BEP stand for in BIM processes?</t>
+  </si>
+  <si>
+    <t>BIM Execution Plan</t>
+  </si>
+  <si>
+    <t>Building Efficiency Program</t>
+  </si>
+  <si>
+    <t>Budget Estimation Proposal</t>
+  </si>
+  <si>
+    <t>What is the key benefit of a Common Data Environment (CDE)?</t>
+  </si>
+  <si>
+    <t>Centralized storage and controlled access to project information</t>
+  </si>
+  <si>
+    <t>Automatic generation of 3D geometry</t>
+  </si>
+  <si>
+    <t>Elimination of contracts</t>
+  </si>
+  <si>
+    <t>In a CDE, which state allows information to be reviewed but not yet authorized?</t>
+  </si>
+  <si>
+    <t>Shared state</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>In a CDE, which state indicates information is archived and no longer active?</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Which document is prepared by the delivery team to explain how EIR requirements will be met?</t>
+  </si>
+  <si>
+    <t>Information Delivery Specification (IDS)</t>
+  </si>
+  <si>
+    <t>Building Permit</t>
+  </si>
+  <si>
+    <t>What is the primary role of Exchange Information Requirements (EIR)?</t>
+  </si>
+  <si>
+    <t>To define client information needs, formats, and timing</t>
+  </si>
+  <si>
+    <t>To set software licensing conditions</t>
+  </si>
+  <si>
+    <t>To define health and safety on site</t>
+  </si>
+  <si>
+    <t>Which standard defines a security-minded approach to BIM?</t>
+  </si>
+  <si>
+    <t>ISO 19650-5</t>
+  </si>
+  <si>
+    <t>ISO 21500</t>
+  </si>
+  <si>
+    <t>What is the purpose of Information Delivery Specifications (IDS)?</t>
+  </si>
+  <si>
+    <t>To make information requirements computer-readable for automated checking</t>
+  </si>
+  <si>
+    <t>To define visual style guides for BIM models</t>
+  </si>
+  <si>
+    <t>To list procurement contacts</t>
+  </si>
+  <si>
+    <t>Which buildingSMART service documents and shares structured BIM use cases globally?</t>
+  </si>
+  <si>
+    <t>Use Case Management (UCM)</t>
+  </si>
+  <si>
+    <t>BIM Collaboration Format (BCF)</t>
+  </si>
+  <si>
+    <t>Data Dictionary (bSDD)</t>
+  </si>
+  <si>
+    <t>How does the BIM Collaboration Format (BCF) support collaboration?</t>
+  </si>
+  <si>
+    <t>By allowing issue tracking and viewpoint sharing across software platforms</t>
+  </si>
+  <si>
+    <t>By defining asset lifecycle costs</t>
+  </si>
+  <si>
+    <t>By specifying security measures</t>
+  </si>
+  <si>
+    <t>What is the function of the buildingSMART Data Dictionary (bSDD)?</t>
+  </si>
+  <si>
+    <t>To provide standardized terminology for BIM properties and classifications</t>
+  </si>
+  <si>
+    <t>To store BIM models permanently</t>
+  </si>
+  <si>
+    <t>To calculate lifecycle costs</t>
+  </si>
+  <si>
+    <t>What does ISO 19650-2 specifically address?</t>
+  </si>
+  <si>
+    <t>Information management during the delivery phase</t>
+  </si>
+  <si>
+    <t>Facility operation processes</t>
+  </si>
+  <si>
+    <t>Deconstruction procedures</t>
+  </si>
+  <si>
+    <t>Which BIM-related concept reduces costly rework during construction by detecting conflicts in design?</t>
+  </si>
+  <si>
+    <t>Clash detection</t>
+  </si>
+  <si>
+    <t>Digital twin simulation</t>
+  </si>
+  <si>
+    <t>Sustainability rating</t>
+  </si>
+  <si>
+    <t>Why is early stakeholder involvement important in BIM processes?</t>
+  </si>
+  <si>
+    <t>To reduce risks and ensure information requirements are met</t>
+  </si>
+  <si>
+    <t>To shorten the design phase only</t>
+  </si>
+  <si>
+    <t>To replace all regulatory approvals</t>
+  </si>
+  <si>
+    <t>What is the main reason digital documentation improves project efficiency?</t>
+  </si>
+  <si>
+    <t>It provides structured, searchable, and sharable information</t>
+  </si>
+  <si>
+    <t>It reduces staff training needs</t>
+  </si>
+  <si>
+    <t>It eliminates the role of designers</t>
+  </si>
+  <si>
+    <t>What is the role of Appointing Parties in BIM projects?</t>
+  </si>
+  <si>
+    <t>To define requirements and authorize project information exchanges</t>
+  </si>
+  <si>
+    <t>To design the mechanical systems</t>
+  </si>
+  <si>
+    <t>To manufacture building products</t>
+  </si>
+  <si>
+    <t>Which type of BIM benefit is associated with improved decision-making and reduced uncertainty?</t>
+  </si>
+  <si>
+    <t>Risk reduction</t>
+  </si>
+  <si>
+    <t>Higher energy use</t>
+  </si>
+  <si>
+    <t>More paper documentation</t>
+  </si>
+  <si>
+    <t>What is meant by “interoperability” in BIM?</t>
+  </si>
+  <si>
+    <t>The ability of different software systems to exchange and use data consistently</t>
+  </si>
+  <si>
+    <t>The requirement that all parties use one software vendor</t>
+  </si>
+  <si>
+    <t>The storage of BIM data in paper archives</t>
+  </si>
+  <si>
+    <t>Which BIM-related process specifies who is responsible for delivering which information?</t>
+  </si>
+  <si>
+    <t>Responsibility matrix</t>
+  </si>
+  <si>
+    <t>Sustainability assessment</t>
   </si>
 </sst>
 </file>
@@ -2259,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765812A-8CD5-3F4E-8FEC-AA23D8B32508}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3922,7 +4579,773 @@
         <v>135</v>
       </c>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" t="s">
+        <v>394</v>
+      </c>
+      <c r="D98" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>400</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" t="s">
+        <v>411</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>412</v>
+      </c>
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>416</v>
+      </c>
+      <c r="B104" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" t="s">
+        <v>423</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" t="s">
+        <v>426</v>
+      </c>
+      <c r="D106" t="s">
+        <v>427</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>428</v>
+      </c>
+      <c r="B107" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107" t="s">
+        <v>431</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>432</v>
+      </c>
+      <c r="B108" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" t="s">
+        <v>435</v>
+      </c>
+      <c r="E108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>436</v>
+      </c>
+      <c r="B109" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" t="s">
+        <v>438</v>
+      </c>
+      <c r="D109" t="s">
+        <v>439</v>
+      </c>
+      <c r="E109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>440</v>
+      </c>
+      <c r="B110" t="s">
+        <v>441</v>
+      </c>
+      <c r="C110" t="s">
+        <v>442</v>
+      </c>
+      <c r="D110" t="s">
+        <v>443</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" t="s">
+        <v>447</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>448</v>
+      </c>
+      <c r="B112" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" t="s">
+        <v>451</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" t="s">
+        <v>455</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>456</v>
+      </c>
+      <c r="B114" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" t="s">
+        <v>458</v>
+      </c>
+      <c r="D114" t="s">
+        <v>459</v>
+      </c>
+      <c r="E114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>460</v>
+      </c>
+      <c r="B115" t="s">
+        <v>461</v>
+      </c>
+      <c r="C115" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" t="s">
+        <v>463</v>
+      </c>
+      <c r="E115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>464</v>
+      </c>
+      <c r="B116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C116" t="s">
+        <v>466</v>
+      </c>
+      <c r="D116" t="s">
+        <v>467</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>468</v>
+      </c>
+      <c r="B117" t="s">
+        <v>469</v>
+      </c>
+      <c r="C117" t="s">
+        <v>470</v>
+      </c>
+      <c r="D117" t="s">
+        <v>471</v>
+      </c>
+      <c r="E117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>472</v>
+      </c>
+      <c r="B118" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>474</v>
+      </c>
+      <c r="D118" t="s">
+        <v>475</v>
+      </c>
+      <c r="E118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>476</v>
+      </c>
+      <c r="B119" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" t="s">
+        <v>402</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" t="s">
+        <v>480</v>
+      </c>
+      <c r="C120" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" t="s">
+        <v>482</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>483</v>
+      </c>
+      <c r="B121" t="s">
+        <v>484</v>
+      </c>
+      <c r="C121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" t="s">
+        <v>486</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" t="s">
+        <v>488</v>
+      </c>
+      <c r="D122" t="s">
+        <v>489</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123" t="s">
+        <v>491</v>
+      </c>
+      <c r="C123" t="s">
+        <v>492</v>
+      </c>
+      <c r="D123" t="s">
+        <v>493</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>494</v>
+      </c>
+      <c r="B124" t="s">
+        <v>495</v>
+      </c>
+      <c r="C124" t="s">
+        <v>496</v>
+      </c>
+      <c r="D124" t="s">
+        <v>497</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>498</v>
+      </c>
+      <c r="B125" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" t="s">
+        <v>500</v>
+      </c>
+      <c r="D125" t="s">
+        <v>501</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>502</v>
+      </c>
+      <c r="B126" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" t="s">
+        <v>504</v>
+      </c>
+      <c r="D126" t="s">
+        <v>505</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>506</v>
+      </c>
+      <c r="B127" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s">
+        <v>504</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>508</v>
+      </c>
+      <c r="B128" t="s">
+        <v>425</v>
+      </c>
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>511</v>
+      </c>
+      <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>515</v>
+      </c>
+      <c r="B130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" t="s">
+        <v>397</v>
+      </c>
+      <c r="D130" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>518</v>
+      </c>
+      <c r="B131" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" t="s">
+        <v>521</v>
+      </c>
+      <c r="E131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>522</v>
+      </c>
+      <c r="B132" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>526</v>
+      </c>
+      <c r="B133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" t="s">
+        <v>528</v>
+      </c>
+      <c r="D133" t="s">
+        <v>529</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>532</v>
+      </c>
+      <c r="D134" t="s">
+        <v>533</v>
+      </c>
+      <c r="E134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>534</v>
+      </c>
+      <c r="B135" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" t="s">
+        <v>536</v>
+      </c>
+      <c r="D135" t="s">
+        <v>537</v>
+      </c>
+      <c r="E135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" t="s">
+        <v>539</v>
+      </c>
+      <c r="C136" t="s">
+        <v>540</v>
+      </c>
+      <c r="D136" t="s">
+        <v>541</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>542</v>
+      </c>
+      <c r="B137" t="s">
+        <v>543</v>
+      </c>
+      <c r="C137" t="s">
+        <v>544</v>
+      </c>
+      <c r="D137" t="s">
+        <v>545</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>546</v>
+      </c>
+      <c r="B138" t="s">
+        <v>547</v>
+      </c>
+      <c r="C138" t="s">
+        <v>548</v>
+      </c>
+      <c r="D138" t="s">
+        <v>549</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>550</v>
+      </c>
+      <c r="B139" t="s">
+        <v>551</v>
+      </c>
+      <c r="C139" t="s">
+        <v>552</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>554</v>
+      </c>
+      <c r="B140" t="s">
+        <v>555</v>
+      </c>
+      <c r="C140" t="s">
+        <v>556</v>
+      </c>
+      <c r="D140" t="s">
+        <v>557</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>558</v>
+      </c>
+      <c r="B141" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" t="s">
+        <v>560</v>
+      </c>
+      <c r="D141" t="s">
+        <v>561</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>562</v>
+      </c>
+      <c r="B142" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" t="s">
+        <v>539</v>
+      </c>
+      <c r="D142" t="s">
+        <v>564</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>